--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>66.234242972486</v>
+        <v>0.01253823027</v>
       </c>
       <c r="R2">
-        <v>596.1081867523741</v>
+        <v>0.11284407243</v>
       </c>
       <c r="S2">
-        <v>0.1146362235732298</v>
+        <v>0.0003139206594611955</v>
       </c>
       <c r="T2">
-        <v>0.1146362235732298</v>
+        <v>0.0003139206594611955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.3843368726235555</v>
+        <v>0.07156975043666665</v>
       </c>
       <c r="R3">
-        <v>3.459031853612</v>
+        <v>0.6441277539299999</v>
       </c>
       <c r="S3">
-        <v>0.0006651986295942434</v>
+        <v>0.001791897482398971</v>
       </c>
       <c r="T3">
-        <v>0.0006651986295942434</v>
+        <v>0.001791897482398972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>3.499959174498889</v>
+        <v>1.262537938806667</v>
       </c>
       <c r="R4">
-        <v>31.49963257049</v>
+        <v>11.36284144926</v>
       </c>
       <c r="S4">
-        <v>0.006057623434930792</v>
+        <v>0.0316102618798823</v>
       </c>
       <c r="T4">
-        <v>0.006057623434930791</v>
+        <v>0.0316102618798823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>275.804066038211</v>
+        <v>0.2803734452180001</v>
       </c>
       <c r="R5">
-        <v>2482.236594343899</v>
+        <v>2.523361006962</v>
       </c>
       <c r="S5">
-        <v>0.4773533320203581</v>
+        <v>0.007019732045345658</v>
       </c>
       <c r="T5">
-        <v>0.4773533320203581</v>
+        <v>0.007019732045345658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>1.600405884340222</v>
@@ -818,10 +818,10 @@
         <v>14.403652959062</v>
       </c>
       <c r="S6">
-        <v>0.002769934078379217</v>
+        <v>0.04006948826101438</v>
       </c>
       <c r="T6">
-        <v>0.002769934078379217</v>
+        <v>0.04006948826101438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>14.57407721404056</v>
+        <v>28.23222288943156</v>
       </c>
       <c r="R7">
-        <v>131.166694926365</v>
+        <v>254.0900060048841</v>
       </c>
       <c r="S7">
-        <v>0.02522437184910968</v>
+        <v>0.7068523895841494</v>
       </c>
       <c r="T7">
-        <v>0.02522437184910968</v>
+        <v>0.7068523895841493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>203.732652061203</v>
+        <v>0.07896519341</v>
       </c>
       <c r="R8">
-        <v>1833.593868550827</v>
+        <v>0.7106867406899999</v>
       </c>
       <c r="S8">
-        <v>0.3526143094978366</v>
+        <v>0.001977057770988604</v>
       </c>
       <c r="T8">
-        <v>0.3526143094978366</v>
+        <v>0.001977057770988605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>1.182197709680666</v>
+        <v>0.4507429727988888</v>
       </c>
       <c r="R9">
-        <v>10.639779387126</v>
+        <v>4.056686755189999</v>
       </c>
       <c r="S9">
-        <v>0.002046112024123379</v>
+        <v>0.01128528733493478</v>
       </c>
       <c r="T9">
-        <v>0.002046112024123379</v>
+        <v>0.01128528733493478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>10.76566942907167</v>
+        <v>7.951405451842223</v>
       </c>
       <c r="R10">
-        <v>96.89102486164499</v>
+        <v>71.56264906658001</v>
       </c>
       <c r="S10">
-        <v>0.01863289489243818</v>
+        <v>0.1990799649818248</v>
       </c>
       <c r="T10">
-        <v>0.01863289489243818</v>
+        <v>0.1990799649818248</v>
       </c>
     </row>
   </sheetData>
